--- a/Code/Results/Cases/Case_9_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_11/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.023408479487248</v>
+        <v>1.021897101965644</v>
       </c>
       <c r="D2">
-        <v>1.038222801123603</v>
+        <v>1.035973896063792</v>
       </c>
       <c r="E2">
-        <v>1.03507199460335</v>
+        <v>1.033884055271259</v>
       </c>
       <c r="F2">
-        <v>1.042497251566658</v>
+        <v>1.041525179669023</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.053197217242557</v>
+        <v>1.052189582122493</v>
       </c>
       <c r="J2">
-        <v>1.044910898954943</v>
+        <v>1.043442033720463</v>
       </c>
       <c r="K2">
-        <v>1.049174126652911</v>
+        <v>1.04695381414062</v>
       </c>
       <c r="L2">
-        <v>1.046063423056514</v>
+        <v>1.044890682918284</v>
       </c>
       <c r="M2">
-        <v>1.053394655906611</v>
+        <v>1.052434797968989</v>
       </c>
       <c r="N2">
-        <v>1.018398311308161</v>
+        <v>1.018402800590141</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.050830606351891</v>
+        <v>1.050070953450835</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.045840619344195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.044279387967387</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024379130232424</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.027291309730376</v>
+        <v>1.025579081390213</v>
       </c>
       <c r="D3">
-        <v>1.040880924840354</v>
+        <v>1.038386347041241</v>
       </c>
       <c r="E3">
-        <v>1.038118918533592</v>
+        <v>1.036763650464281</v>
       </c>
       <c r="F3">
-        <v>1.04540098394634</v>
+        <v>1.044295619617253</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.054231767398418</v>
+        <v>1.053094391821011</v>
       </c>
       <c r="J3">
-        <v>1.04706465875576</v>
+        <v>1.045395917732603</v>
       </c>
       <c r="K3">
-        <v>1.051016140488776</v>
+        <v>1.048550541649695</v>
       </c>
       <c r="L3">
-        <v>1.048286230021314</v>
+        <v>1.046946788184957</v>
       </c>
       <c r="M3">
-        <v>1.055484126004757</v>
+        <v>1.054391444675224</v>
       </c>
       <c r="N3">
-        <v>1.019154971038518</v>
+        <v>1.018944445695429</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.052484256754397</v>
+        <v>1.051619486316996</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.047140420040202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.045405477059224</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024716386258899</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.029760081620676</v>
+        <v>1.027921611576177</v>
       </c>
       <c r="D4">
-        <v>1.042574821932385</v>
+        <v>1.039925027782056</v>
       </c>
       <c r="E4">
-        <v>1.040061926149889</v>
+        <v>1.038601441629733</v>
       </c>
       <c r="F4">
-        <v>1.047254340004043</v>
+        <v>1.046065194026453</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.054882161274803</v>
+        <v>1.053662838618459</v>
       </c>
       <c r="J4">
-        <v>1.048431986035875</v>
+        <v>1.046637077721901</v>
       </c>
       <c r="K4">
-        <v>1.052185188819077</v>
+        <v>1.049564337708894</v>
       </c>
       <c r="L4">
-        <v>1.049699736333492</v>
+        <v>1.048255276700367</v>
       </c>
       <c r="M4">
-        <v>1.056814032230347</v>
+        <v>1.055637710870587</v>
       </c>
       <c r="N4">
-        <v>1.019635100531533</v>
+        <v>1.019288471330683</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.053536770504759</v>
+        <v>1.052605806890672</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.047967907626266</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.046123273850019</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024928194387075</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.030792067675858</v>
+        <v>1.028901001124577</v>
       </c>
       <c r="D5">
-        <v>1.043286176646272</v>
+        <v>1.040571649920957</v>
       </c>
       <c r="E5">
-        <v>1.040875829375063</v>
+        <v>1.039371481571256</v>
       </c>
       <c r="F5">
-        <v>1.048030483949069</v>
+        <v>1.046806421683903</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.055154112757181</v>
+        <v>1.053900560914567</v>
       </c>
       <c r="J5">
-        <v>1.049004829499777</v>
+        <v>1.047157243705763</v>
       </c>
       <c r="K5">
-        <v>1.052676579800777</v>
+        <v>1.049990920875272</v>
       </c>
       <c r="L5">
-        <v>1.050291856343376</v>
+        <v>1.048803574663835</v>
       </c>
       <c r="M5">
-        <v>1.057370872380258</v>
+        <v>1.056159661190479</v>
       </c>
       <c r="N5">
-        <v>1.019836830981909</v>
+        <v>1.019433105812841</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.053977464234684</v>
+        <v>1.053018888672245</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.048322446460941</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.046432704435905</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025017404612301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.030969943395847</v>
+        <v>1.029069635164694</v>
       </c>
       <c r="D6">
-        <v>1.043411745787887</v>
+        <v>1.040685978480054</v>
       </c>
       <c r="E6">
-        <v>1.04101662284051</v>
+        <v>1.039504542765384</v>
       </c>
       <c r="F6">
-        <v>1.048164040338096</v>
+        <v>1.046933828629798</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.055203170631386</v>
+        <v>1.053943601892768</v>
       </c>
       <c r="J6">
-        <v>1.049105725602882</v>
+        <v>1.047248887724128</v>
       </c>
       <c r="K6">
-        <v>1.052765190342122</v>
+        <v>1.050068278639389</v>
       </c>
       <c r="L6">
-        <v>1.050395412867303</v>
+        <v>1.04889940742265</v>
       </c>
       <c r="M6">
-        <v>1.05746761449274</v>
+        <v>1.056250259512138</v>
       </c>
       <c r="N6">
-        <v>1.019873138695535</v>
+        <v>1.019459154265076</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.054054027729291</v>
+        <v>1.053090589948515</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.04839374749275</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.046496922717216</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025034338950526</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.029787900912033</v>
+        <v>1.027956469409013</v>
       </c>
       <c r="D7">
-        <v>1.042601782563857</v>
+        <v>1.039956889670284</v>
       </c>
       <c r="E7">
-        <v>1.040085030356968</v>
+        <v>1.038630558945993</v>
       </c>
       <c r="F7">
-        <v>1.04727440306954</v>
+        <v>1.046089982711182</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.054895668338915</v>
+        <v>1.053679865411235</v>
       </c>
       <c r="J7">
-        <v>1.048453324115636</v>
+        <v>1.046665268269142</v>
       </c>
       <c r="K7">
-        <v>1.052209017666351</v>
+        <v>1.049593002670715</v>
       </c>
       <c r="L7">
-        <v>1.049719740113854</v>
+        <v>1.048281221319575</v>
       </c>
       <c r="M7">
-        <v>1.056831057803746</v>
+        <v>1.055659406187424</v>
       </c>
       <c r="N7">
-        <v>1.019644743805637</v>
+        <v>1.019324083716592</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.053550244866417</v>
+        <v>1.05262297699699</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.048004647875351</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.046165443186506</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024937243805195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.024747599831753</v>
+        <v>1.023193674636297</v>
       </c>
       <c r="D8">
-        <v>1.039148412095812</v>
+        <v>1.036835625661186</v>
       </c>
       <c r="E8">
-        <v>1.036123196599836</v>
+        <v>1.034900494959947</v>
       </c>
       <c r="F8">
-        <v>1.043496209104721</v>
+        <v>1.042496218145034</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.053563249610674</v>
+        <v>1.052525156966527</v>
       </c>
       <c r="J8">
-        <v>1.045661496582426</v>
+        <v>1.04414982250835</v>
       </c>
       <c r="K8">
-        <v>1.049822972094357</v>
+        <v>1.047538722841883</v>
       </c>
       <c r="L8">
-        <v>1.046835116312805</v>
+        <v>1.045627591552158</v>
       </c>
       <c r="M8">
-        <v>1.054117547790125</v>
+        <v>1.05312974883677</v>
       </c>
       <c r="N8">
-        <v>1.018664866043467</v>
+        <v>1.01868095033952</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.051402718542823</v>
+        <v>1.050620953087397</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.046322074946783</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.044717913650961</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024508720886256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.015493973705462</v>
+        <v>1.014432836178748</v>
       </c>
       <c r="D9">
-        <v>1.032827739470657</v>
+        <v>1.031110285654302</v>
       </c>
       <c r="E9">
-        <v>1.028894488309438</v>
+        <v>1.028082198485835</v>
       </c>
       <c r="F9">
-        <v>1.03661915314012</v>
+        <v>1.035946294956144</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.051049887853098</v>
+        <v>1.050327129750586</v>
       </c>
       <c r="J9">
-        <v>1.040511218362766</v>
+        <v>1.039486029698516</v>
       </c>
       <c r="K9">
-        <v>1.045409751706923</v>
+        <v>1.043718008475534</v>
       </c>
       <c r="L9">
-        <v>1.041535543486425</v>
+        <v>1.040735518824714</v>
       </c>
       <c r="M9">
-        <v>1.049144790557228</v>
+        <v>1.048481898873638</v>
       </c>
       <c r="N9">
-        <v>1.016851868181774</v>
+        <v>1.017396128880481</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.047467162596241</v>
+        <v>1.046942533095358</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.043198542966677</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.04201303545091</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023686891359407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.009151994384422</v>
+        <v>1.008474169748667</v>
       </c>
       <c r="D10">
-        <v>1.02853244356137</v>
+        <v>1.027256663656674</v>
       </c>
       <c r="E10">
-        <v>1.02401100510147</v>
+        <v>1.023518094161583</v>
       </c>
       <c r="F10">
-        <v>1.032027326663981</v>
+        <v>1.031609190995324</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.049318045205216</v>
+        <v>1.048833488464537</v>
       </c>
       <c r="J10">
-        <v>1.037007149028495</v>
+        <v>1.036355558261857</v>
       </c>
       <c r="K10">
-        <v>1.042404961951324</v>
+        <v>1.041150632660899</v>
       </c>
       <c r="L10">
-        <v>1.037959856774551</v>
+        <v>1.037475320050686</v>
       </c>
       <c r="M10">
-        <v>1.04584143290463</v>
+        <v>1.045430258948327</v>
       </c>
       <c r="N10">
-        <v>1.015627767880005</v>
+        <v>1.016653780619394</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.044903837248128</v>
+        <v>1.044578442511714</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.041090674588888</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.04021612692125</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023134266475456</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.007001820048999</v>
+        <v>1.006483250918546</v>
       </c>
       <c r="D11">
-        <v>1.027174764192717</v>
+        <v>1.026066332973752</v>
       </c>
       <c r="E11">
-        <v>1.02265914695519</v>
+        <v>1.022295725087859</v>
       </c>
       <c r="F11">
-        <v>1.031120667984074</v>
+        <v>1.030806911445169</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.048934306449915</v>
+        <v>1.04853937550559</v>
       </c>
       <c r="J11">
-        <v>1.036086188488331</v>
+        <v>1.035588784325429</v>
       </c>
       <c r="K11">
-        <v>1.041601777059734</v>
+        <v>1.040512867541969</v>
       </c>
       <c r="L11">
-        <v>1.037166032806593</v>
+        <v>1.036809079027719</v>
       </c>
       <c r="M11">
-        <v>1.045478626595319</v>
+        <v>1.04517033581937</v>
       </c>
       <c r="N11">
-        <v>1.015389568237523</v>
+        <v>1.016731831479465</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.045049643765197</v>
+        <v>1.044805789578546</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.040555393001316</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.039801024556955</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023055650516528</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.006437169882994</v>
+        <v>1.005953789302574</v>
       </c>
       <c r="D12">
-        <v>1.026858602858526</v>
+        <v>1.025786035870302</v>
       </c>
       <c r="E12">
-        <v>1.022446342245081</v>
+        <v>1.022108522382737</v>
       </c>
       <c r="F12">
-        <v>1.031187778051025</v>
+        <v>1.030895504112499</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.048932111946784</v>
+        <v>1.048553014593921</v>
       </c>
       <c r="J12">
-        <v>1.035971573760708</v>
+        <v>1.035508294124135</v>
       </c>
       <c r="K12">
-        <v>1.041488711383922</v>
+        <v>1.04043534696418</v>
       </c>
       <c r="L12">
-        <v>1.037155780631498</v>
+        <v>1.036824071279147</v>
       </c>
       <c r="M12">
-        <v>1.04574090632103</v>
+        <v>1.045453803122898</v>
       </c>
       <c r="N12">
-        <v>1.015415596721849</v>
+        <v>1.016856731066066</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.045581205972286</v>
+        <v>1.045354186703863</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.040475453023972</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.039746216794508</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023080776992078</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.007073578221034</v>
+        <v>1.006517045211739</v>
       </c>
       <c r="D13">
-        <v>1.027343709291055</v>
+        <v>1.026196094692333</v>
       </c>
       <c r="E13">
-        <v>1.023113227831541</v>
+        <v>1.022710128024017</v>
       </c>
       <c r="F13">
-        <v>1.032032724141481</v>
+        <v>1.031689613519348</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.049239781423619</v>
+        <v>1.04881285326422</v>
       </c>
       <c r="J13">
-        <v>1.036490021582524</v>
+        <v>1.035956507937331</v>
       </c>
       <c r="K13">
-        <v>1.041922809153087</v>
+        <v>1.040795649033227</v>
       </c>
       <c r="L13">
-        <v>1.037768024826822</v>
+        <v>1.03737218026388</v>
       </c>
       <c r="M13">
-        <v>1.046528862112547</v>
+        <v>1.046191788935619</v>
       </c>
       <c r="N13">
-        <v>1.015656518972536</v>
+        <v>1.016995583692822</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.04647913037104</v>
+        <v>1.046212664805766</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.040779896294429</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.039998237152779</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023192559374024</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.008062938938838</v>
+        <v>1.007407024050504</v>
       </c>
       <c r="D14">
-        <v>1.028047554640853</v>
+        <v>1.026798034673443</v>
       </c>
       <c r="E14">
-        <v>1.023977020721418</v>
+        <v>1.023488160507713</v>
       </c>
       <c r="F14">
-        <v>1.032974684208282</v>
+        <v>1.032564092567043</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.049595432124828</v>
+        <v>1.049107010513185</v>
       </c>
       <c r="J14">
-        <v>1.037139275607041</v>
+        <v>1.036510094630263</v>
       </c>
       <c r="K14">
-        <v>1.042475536060638</v>
+        <v>1.041248006734231</v>
       </c>
       <c r="L14">
-        <v>1.038476896659936</v>
+        <v>1.037996720701603</v>
       </c>
       <c r="M14">
-        <v>1.047316622785378</v>
+        <v>1.046913160742792</v>
       </c>
       <c r="N14">
-        <v>1.015922509194172</v>
+        <v>1.017100785964461</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.047274170926249</v>
+        <v>1.046955265747981</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.041172100369185</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.040319610860686</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023310912420003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.008572854111968</v>
+        <v>1.007869567360509</v>
       </c>
       <c r="D15">
-        <v>1.028401876709319</v>
+        <v>1.027103594005089</v>
       </c>
       <c r="E15">
-        <v>1.024389992174841</v>
+        <v>1.023860974242174</v>
       </c>
       <c r="F15">
-        <v>1.033390709679292</v>
+        <v>1.032948348748578</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.049755358277249</v>
+        <v>1.049238410716222</v>
       </c>
       <c r="J15">
-        <v>1.037444331971039</v>
+        <v>1.036769457294706</v>
       </c>
       <c r="K15">
-        <v>1.042738273994808</v>
+        <v>1.04146266564943</v>
       </c>
       <c r="L15">
-        <v>1.03879669718254</v>
+        <v>1.038277003528374</v>
       </c>
       <c r="M15">
-        <v>1.047640662996739</v>
+        <v>1.047205923443362</v>
       </c>
       <c r="N15">
-        <v>1.016038030902022</v>
+        <v>1.017135583731774</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.047567630612932</v>
+        <v>1.047224011967768</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.041363686181144</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.040477773460461</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.023361750351877</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.01113507399026</v>
+        <v>1.010222388893224</v>
       </c>
       <c r="D16">
-        <v>1.030127391547302</v>
+        <v>1.028609285880397</v>
       </c>
       <c r="E16">
-        <v>1.026332736980524</v>
+        <v>1.025629720917442</v>
       </c>
       <c r="F16">
-        <v>1.035202260711993</v>
+        <v>1.034621396492661</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.050443173527786</v>
+        <v>1.049803087635393</v>
       </c>
       <c r="J16">
-        <v>1.038838367712455</v>
+        <v>1.037960710279499</v>
       </c>
       <c r="K16">
-        <v>1.043938043972793</v>
+        <v>1.042445295064545</v>
       </c>
       <c r="L16">
-        <v>1.040206952426834</v>
+        <v>1.039515778967177</v>
       </c>
       <c r="M16">
-        <v>1.048928842593026</v>
+        <v>1.04835754722507</v>
       </c>
       <c r="N16">
-        <v>1.016513716603139</v>
+        <v>1.017246271549796</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.048547310341962</v>
+        <v>1.048095744984183</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.042215092531938</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.041175954943545</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023565078666912</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.012584871445171</v>
+        <v>1.011573891234379</v>
       </c>
       <c r="D17">
-        <v>1.031085159782558</v>
+        <v>1.029459591317198</v>
       </c>
       <c r="E17">
-        <v>1.027372630101998</v>
+        <v>1.026589421602554</v>
       </c>
       <c r="F17">
-        <v>1.03609507257386</v>
+        <v>1.035449932551487</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.050783079609067</v>
+        <v>1.050085714706229</v>
       </c>
       <c r="J17">
-        <v>1.039567876512289</v>
+        <v>1.038594454202476</v>
       </c>
       <c r="K17">
-        <v>1.04456925530292</v>
+        <v>1.042970078166935</v>
       </c>
       <c r="L17">
-        <v>1.040917156430631</v>
+        <v>1.040146768407806</v>
       </c>
       <c r="M17">
-        <v>1.049498499386182</v>
+        <v>1.048863691135854</v>
       </c>
       <c r="N17">
-        <v>1.016739296225295</v>
+        <v>1.017305921099323</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.048869326757791</v>
+        <v>1.048367509810344</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.042663940689385</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.041549803558627</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023660846471048</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.013192948495722</v>
+        <v>1.012158653462573</v>
       </c>
       <c r="D18">
-        <v>1.03144785949769</v>
+        <v>1.029793224459796</v>
       </c>
       <c r="E18">
-        <v>1.027697345408508</v>
+        <v>1.026897428321221</v>
       </c>
       <c r="F18">
-        <v>1.03622505448036</v>
+        <v>1.035565725720666</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.050839187282313</v>
+        <v>1.050130129929947</v>
       </c>
       <c r="J18">
-        <v>1.039766643173339</v>
+        <v>1.038770062257277</v>
       </c>
       <c r="K18">
-        <v>1.0447449768674</v>
+        <v>1.043116768576566</v>
       </c>
       <c r="L18">
-        <v>1.041054520257424</v>
+        <v>1.040267485185425</v>
       </c>
       <c r="M18">
-        <v>1.049446479761884</v>
+        <v>1.04879754453574</v>
       </c>
       <c r="N18">
-        <v>1.016758310902681</v>
+        <v>1.01727897548942</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.048592134148319</v>
+        <v>1.048079044237918</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.042776642612156</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.041640840899253</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023662058230515</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.013061042843052</v>
+        <v>1.012060547986261</v>
       </c>
       <c r="D19">
-        <v>1.031300095593884</v>
+        <v>1.029678698086371</v>
       </c>
       <c r="E19">
-        <v>1.027389582131039</v>
+        <v>1.026621097701068</v>
       </c>
       <c r="F19">
-        <v>1.035671464414266</v>
+        <v>1.035035963310252</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.050657145723359</v>
+        <v>1.049971585906727</v>
       </c>
       <c r="J19">
-        <v>1.039507742409047</v>
+        <v>1.03854352815579</v>
       </c>
       <c r="K19">
-        <v>1.04453780066592</v>
+        <v>1.042942169642966</v>
       </c>
       <c r="L19">
-        <v>1.040689608783286</v>
+        <v>1.039933443226432</v>
       </c>
       <c r="M19">
-        <v>1.048840215997814</v>
+        <v>1.048214692922821</v>
       </c>
       <c r="N19">
-        <v>1.016605961655747</v>
+        <v>1.017163395774344</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.047789728988495</v>
+        <v>1.047294991009045</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.042636505785476</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.041524364368144</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023586381969047</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.010834633719268</v>
+        <v>1.010026977518886</v>
       </c>
       <c r="D20">
-        <v>1.029690325162746</v>
+        <v>1.028275834855988</v>
       </c>
       <c r="E20">
-        <v>1.025309848745806</v>
+        <v>1.024707641723201</v>
       </c>
       <c r="F20">
-        <v>1.033245340521669</v>
+        <v>1.032740296436837</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.049797096847565</v>
+        <v>1.049233864166641</v>
       </c>
       <c r="J20">
-        <v>1.03795419397463</v>
+        <v>1.037176773839139</v>
       </c>
       <c r="K20">
-        <v>1.043230451413748</v>
+        <v>1.041839064910343</v>
       </c>
       <c r="L20">
-        <v>1.038921790487915</v>
+        <v>1.038329518090469</v>
       </c>
       <c r="M20">
-        <v>1.046727758860694</v>
+        <v>1.046230881979969</v>
       </c>
       <c r="N20">
-        <v>1.015965543623529</v>
+        <v>1.016784151967392</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.045594797462619</v>
+        <v>1.04520157455626</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.04171606659639</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.040748724627424</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023286426280811</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,105 +1617,123 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.00594684984305</v>
+        <v>1.005569707616446</v>
       </c>
       <c r="D21">
-        <v>1.026368356683021</v>
+        <v>1.025400590397404</v>
       </c>
       <c r="E21">
-        <v>1.021501370259435</v>
+        <v>1.021263409935184</v>
       </c>
       <c r="F21">
-        <v>1.029597192907023</v>
+        <v>1.029381430797268</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.048408143214122</v>
+        <v>1.048103182695824</v>
       </c>
       <c r="J21">
-        <v>1.035198022820338</v>
+        <v>1.034836393366769</v>
       </c>
       <c r="K21">
-        <v>1.040866819373171</v>
+        <v>1.0399162070951</v>
       </c>
       <c r="L21">
-        <v>1.036086529802804</v>
+        <v>1.035852835851167</v>
       </c>
       <c r="M21">
-        <v>1.044038725618996</v>
+        <v>1.04382675333757</v>
       </c>
       <c r="N21">
-        <v>1.014986727649138</v>
+        <v>1.016557196903484</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.043426082020507</v>
+        <v>1.043258320830178</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.040048123527815</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.039392752202422</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022871812968775</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.002836832216304</v>
+        <v>1.002734107557492</v>
       </c>
       <c r="D22">
-        <v>1.024257925226011</v>
+        <v>1.023574860125869</v>
       </c>
       <c r="E22">
-        <v>1.019102700788542</v>
+        <v>1.019097395019706</v>
       </c>
       <c r="F22">
-        <v>1.027326560105556</v>
+        <v>1.02729576654837</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.047523344062035</v>
+        <v>1.047383385450742</v>
       </c>
       <c r="J22">
-        <v>1.033453016721367</v>
+        <v>1.033354765047797</v>
       </c>
       <c r="K22">
-        <v>1.03936367310945</v>
+        <v>1.038693327573235</v>
       </c>
       <c r="L22">
-        <v>1.03430499608692</v>
+        <v>1.034299790342324</v>
       </c>
       <c r="M22">
-        <v>1.042375437985297</v>
+        <v>1.042345212915411</v>
       </c>
       <c r="N22">
-        <v>1.014368810872951</v>
+        <v>1.016409786092162</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.0421097055029</v>
+        <v>1.042085784439487</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.038971937719808</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.038513424811542</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022607477643403</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.004477671732468</v>
+        <v>1.004215386451502</v>
       </c>
       <c r="D23">
-        <v>1.025363792875496</v>
+        <v>1.024518662550294</v>
       </c>
       <c r="E23">
-        <v>1.020365951252721</v>
+        <v>1.020224946778776</v>
       </c>
       <c r="F23">
-        <v>1.028524078866975</v>
+        <v>1.028385462369194</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.047985169819238</v>
+        <v>1.047749973026092</v>
       </c>
       <c r="J23">
-        <v>1.034368301900011</v>
+        <v>1.034117100529027</v>
       </c>
       <c r="K23">
-        <v>1.040147416457004</v>
+        <v>1.039317621242156</v>
       </c>
       <c r="L23">
-        <v>1.035240742727796</v>
+        <v>1.035102327256696</v>
       </c>
       <c r="M23">
-        <v>1.043250648426001</v>
+        <v>1.04311452487701</v>
       </c>
       <c r="N23">
-        <v>1.014690525474564</v>
+        <v>1.016439030797812</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.042802374012606</v>
+        <v>1.042694641685093</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.039516499251786</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.038944305422154</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.022738734917042</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.010831219035042</v>
+        <v>1.010027354832349</v>
       </c>
       <c r="D24">
-        <v>1.029668845770629</v>
+        <v>1.028257686760734</v>
       </c>
       <c r="E24">
-        <v>1.025276321850034</v>
+        <v>1.024677812744162</v>
       </c>
       <c r="F24">
-        <v>1.033180313868178</v>
+        <v>1.032678046026764</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.049767859362851</v>
+        <v>1.049207419942782</v>
       </c>
       <c r="J24">
-        <v>1.037918611981026</v>
+        <v>1.037144799864673</v>
       </c>
       <c r="K24">
-        <v>1.043194233494208</v>
+        <v>1.041806095543629</v>
       </c>
       <c r="L24">
-        <v>1.038873635414767</v>
+        <v>1.038284988074738</v>
       </c>
       <c r="M24">
-        <v>1.046648767279617</v>
+        <v>1.046154612656689</v>
       </c>
       <c r="N24">
-        <v>1.015942133586808</v>
+        <v>1.016763810927551</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.045491743734383</v>
+        <v>1.045100656062163</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.041663267244418</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.040695542631069</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023271211650319</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.017952745213352</v>
+        <v>1.016746909288416</v>
       </c>
       <c r="D25">
-        <v>1.034515388788719</v>
+        <v>1.032629495270983</v>
       </c>
       <c r="E25">
-        <v>1.030811682342287</v>
+        <v>1.029878481266627</v>
       </c>
       <c r="F25">
-        <v>1.038438259056113</v>
+        <v>1.037669106416664</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.051733979802051</v>
+        <v>1.050920162863467</v>
       </c>
       <c r="J25">
-        <v>1.041890673191881</v>
+        <v>1.040723524748118</v>
       </c>
       <c r="K25">
-        <v>1.046600524718152</v>
+        <v>1.044741549193048</v>
       </c>
       <c r="L25">
-        <v>1.042949800578155</v>
+        <v>1.042030025278001</v>
       </c>
       <c r="M25">
-        <v>1.050467798380772</v>
+        <v>1.049709504626153</v>
       </c>
       <c r="N25">
-        <v>1.017341411623596</v>
+        <v>1.01770877184841</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.048514223849156</v>
+        <v>1.04791409151805</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.04406881123349</v>
+        <v>1.042767875210395</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023911402293362</v>
       </c>
     </row>
   </sheetData>
